--- a/RyanFaulk_0_5000.xlsx
+++ b/RyanFaulk_0_5000.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Collection" sheetId="1" r:id="rId1"/>
+    <sheet name="Collection" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Index</t>
   </si>
@@ -28,7 +27,7 @@
     <t>Collection</t>
   </si>
   <si>
-    <t>Media Type</t>
+    <t xml:space="preserve">Media Type</t>
   </si>
   <si>
     <t>Uploader</t>
@@ -55,10 +54,10 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Ocr Detected Lang</t>
-  </si>
-  <si>
-    <t>Page Number Confidence</t>
+    <t xml:space="preserve">Ocr Detected Lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page Number Confidence</t>
   </si>
   <si>
     <t>Ppi</t>
@@ -70,162 +69,160 @@
     <t>0</t>
   </si>
   <si>
+    <t>AntiStatismAtLightSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti Statism At Light Speed Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['opensource_movies', 'community']</t>
+  </si>
+  <si>
+    <t>movies</t>
+  </si>
+  <si>
+    <t>mwest25140@protonmail.com</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>anti-statism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-20 01:27:52</t>
+  </si>
+  <si>
+    <t>2010-12-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Faulk/ Alternative Hypothesis</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a four part series created by Ryan Faulk about anti-statism.</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>leaving-the-cathedral-ryan-faulk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaving The Cathedral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['opensource', 'community']</t>
+  </si>
+  <si>
+    <t>texts</t>
+  </si>
+  <si>
+    <t>imcgilli@bigpond.net.au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Academic stagnation', '20th century culture']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-28 11:36:11</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Faulk</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>96.51</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expounding on academic stagnation since the 1970's, it's symptoms and it's causes.The author is also known under the name of "The Alternative Hypothesis".</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>perception-of-oppression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perception Of Oppression</t>
+  </si>
+  <si>
+    <t>opensource</t>
+  </si>
+  <si>
+    <t>TheKingGB12@gmail.com</t>
+  </si>
+  <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-16 23:49:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Faulk, The Alternative Hypothesis</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>AntiStatismAtLightSpeed</t>
-  </si>
-  <si>
-    <t>leaving-the-cathedral-ryan-faulk</t>
-  </si>
-  <si>
-    <t>perception-of-oppression</t>
-  </si>
-  <si>
     <t>proven-at-nuremberg-true-holocaust-remembrance</t>
   </si>
   <si>
-    <t>Anti Statism At Light Speed Series</t>
-  </si>
-  <si>
-    <t>Leaving The Cathedral</t>
-  </si>
-  <si>
-    <t>Perception Of Oppression</t>
-  </si>
-  <si>
-    <t># Proven At Nuremberg+ + True+ Holocaust+ Remembrance</t>
-  </si>
-  <si>
-    <t>['opensource_movies', 'community']</t>
-  </si>
-  <si>
-    <t>['opensource', 'community']</t>
-  </si>
-  <si>
-    <t>opensource</t>
-  </si>
-  <si>
-    <t>['fringe', 'deemphasize']</t>
-  </si>
-  <si>
-    <t>movies</t>
-  </si>
-  <si>
-    <t>texts</t>
-  </si>
-  <si>
-    <t>mwest25140@protonmail.com</t>
-  </si>
-  <si>
-    <t>imcgilli@bigpond.net.au</t>
-  </si>
-  <si>
-    <t>TheKingGB12@gmail.com</t>
+    <t xml:space="preserve"># Proven At Nuremberg+ + True+ Holocaust+ Remembrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['fringe', 'deemphasize']</t>
   </si>
   <si>
     <t>donavan.estes@outlook.com</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>anti-statism</t>
-  </si>
-  <si>
-    <t>['Academic stagnation', '20th century culture']</t>
-  </si>
-  <si>
-    <t>Politics</t>
-  </si>
-  <si>
-    <t>['Ryan Faulk', 'Alternative Hypothesis', "Knight's Move", 'Holocaust Denial', 'Holocaust Revisionism']</t>
-  </si>
-  <si>
-    <t>2018-05-20 01:27:52</t>
-  </si>
-  <si>
-    <t>2021-10-28 11:36:11</t>
-  </si>
-  <si>
-    <t>2024-06-16 23:49:41</t>
-  </si>
-  <si>
-    <t>2020-04-24 15:24:10</t>
-  </si>
-  <si>
-    <t>2010-12-28</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
+    <t xml:space="preserve">['Ryan Faulk', 'Alternative Hypothesis', "Knight's Move", 'Holocaust Denial', 'Holocaust Revisionism']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-24 15:24:10</t>
   </si>
   <si>
     <t>2020-04-21</t>
   </si>
   <si>
-    <t>Ryan Faulk/ Alternative Hypothesis</t>
-  </si>
-  <si>
-    <t>Ryan Faulk</t>
-  </si>
-  <si>
-    <t>Ryan Faulk, The Alternative Hypothesis</t>
-  </si>
-  <si>
-    <t>Ryan Faulk, Alternative Hypothesis, Knight's Move</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>96.51</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>This is a four part series created by Ryan Faulk about anti-statism.</t>
-  </si>
-  <si>
-    <t>Expounding on academic stagnation since the 1970's, it's symptoms and it's causes.The author is also known under the name of "The Alternative Hypothesis".</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Video by Ryan Faulk, Alternative Hypothesis, Knight's Move.  Video uploaded on youtube on 4/21/2020 on youtube channel Knight's Move.</t>
+    <t xml:space="preserve">Ryan Faulk, Alternative Hypothesis, Knight's Move</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video by Ryan Faulk, Alternative Hypothesis, Knight's Move.  Video uploaded on youtube on 4/21/2020 on youtube channel Knight's Move.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -239,11 +236,11 @@
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -258,15 +255,15 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -274,11 +271,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -324,13 +326,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -358,13 +360,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -561,15 +563,228 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="53.28125"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,189 +837,192 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
       </c>
       <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
       </c>
       <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>54</v>
       </c>
       <c r="Q5" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>